--- a/testfile.xlsx
+++ b/testfile.xlsx
@@ -32,7 +32,7 @@
     <t>bloebloe</t>
   </si>
   <si>
-    <t>upupup</t>
+    <t>biepboepbap</t>
   </si>
 </sst>
 </file>

--- a/testfile.xlsx
+++ b/testfile.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9276"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="RawData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,17 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>blabla</t>
-  </si>
-  <si>
-    <t>bloebloe</t>
-  </si>
-  <si>
-    <t>biepboepbap</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -350,28 +340,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>